--- a/Files/EXCEL Output/Assignment5.xlsx
+++ b/Files/EXCEL Output/Assignment5.xlsx
@@ -130,21 +130,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D4" headerRowCount="1">
-  <autoFilter ref="A1:D4"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E4" headerRowCount="1">
+  <autoFilter ref="A1:E4"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Measure Name"/>
     <tableColumn id="2" name="Measure Expression"/>
     <tableColumn id="3" name="Measure Data Type"/>
-    <tableColumn id="4" name="Measure Description"/>
+    <tableColumn id="4" name="Measure Folder"/>
+    <tableColumn id="5" name="Measure Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:I2" headerRowCount="1">
-  <autoFilter ref="A1:I2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Source" displayName="Source" ref="A1:I3" headerRowCount="1">
+  <autoFilter ref="A1:I3"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Table No"/>
     <tableColumn id="2" name="Table Name"/>
@@ -449,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +461,8 @@
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -481,6 +483,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Measure Folder</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Measure Description</t>
         </is>
       </c>
@@ -493,7 +500,8 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>DISTINCTCOUNT(LiteracyTable[State])</t>
+          <t xml:space="preserve">
+DISTINCTCOUNT(LiteracyTable[State])</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -503,7 +511,12 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>This calculation is used to count the unique states from a LiteracyTable. It will count the states only once, even if they appear more than once in the table. This is useful to determine how many distinct states are represented in the Literacy Table.</t>
+          <t>No Folder Defined</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>The DISTINCTCOUNT function in LiteracyTable[State] is used to count the unique occurrences of states in the table. This helps provide an understanding of how many different states are represented in the Literacy Table.</t>
         </is>
       </c>
     </row>
@@ -515,7 +528,14 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>COUNTAX(FILTER(LiteracyTable, 'LiteracyTable'[Level] = "City"), [City])</t>
+          <t xml:space="preserve">
+COUNTAX(
+    FILTER(
+        LiteracyTable,
+        'LiteracyTable'[Level] = "City"
+    ), 
+    [City]
+)</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -525,7 +545,12 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>This calculation counts the number of cities that have a literacy level of "City". It looks at the LiteracyTable and filters it based on any rows that have the Level column equal to "City" and then it counts them.</t>
+          <t>No Folder Defined</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>This calculation counts the number of cities in the LiteracyTable that have a Level value of "City".</t>
         </is>
       </c>
     </row>
@@ -537,7 +562,14 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>COUNTAX(FILTER(LiteracyTable, 'LiteracyTable'[Level] = "UA"), [City])</t>
+          <t xml:space="preserve">
+COUNTAX(
+    FILTER(
+        LiteracyTable, 
+        LiteracyTable[Level] = "UA"
+    ), 
+    [City]
+)</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -547,7 +579,12 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>This calculation is counting the number of cities in a literacy table where the literacy level is "UA," or Unavailable. It's using a filter to only count values where the Level is UA, and it's counting the City column in that filtered table.</t>
+          <t>No Folder Defined</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>This calculation counts the number of unique cities in a literacy table for all records with a Level of "UA". It tells us how many cities have a literacy level of "UA".</t>
         </is>
       </c>
     </row>
@@ -633,7 +670,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
@@ -679,13 +716,13 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. This changes the field types of the LiteracyTable table to the specified data types.
-2. "Replaced Errors" replaces any cells with the value of "State Code" and sets it to 33.
-3. This sentence means that the table "Replaced Errors" was renamed and the column "Name of Urban Agglomeration/City" was changed to "City".
-4. "Split Column by Delimiter" means to separate the contents of a column into two new columns based on a specified delimiter.
-5. Table.TransformColumnTypes changes the data type of the City.1 and City.2 columns from whatever it was before to text.
-6. Removing the City.2 column from the ChangedType1 table.
-7. This renames the two columns "City.1" and "State Name" to "City" and "State" respectively.
+          <t xml:space="preserve">1. This changes the data types of the columns in the LiteracyTable_Table to integers, text, or numbers.
+2. This sentence means that the "Replaced Errors" table was created by changing the type and replacing the "State Code" value with 33.
+3. Renamed Columns means that the column labelled "Name of Urban Agglomeration/City" has been changed to "City" for the table "Replaced Errors".
+4. Split a "City" column into two columns named "City.1" and "City.2" based on spaces between words.
+5. Table.TransformColumnTypes takes a data table as an input and transforms the type of certain columns from one type to another.
+6. This line of code removes the "City.2" column from the table "Changed Type1".
+7. The column names "City.1" and "State Name" were changed to "City" and "State", respectively.
 </t>
         </is>
       </c>

--- a/Files/EXCEL Output/Assignment5.xlsx
+++ b/Files/EXCEL Output/Assignment5.xlsx
@@ -516,7 +516,7 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>The DISTINCTCOUNT function in LiteracyTable[State] is used to count the unique occurrences of states in the table. This helps provide an understanding of how many different states are represented in the Literacy Table.</t>
+          <t>This calculation is counting the number of distinct (or unique) states in the LiteracyTable. It is used to determine how many states are represented in the table and is often helpful to understand how many pieces of data are included in the table.</t>
         </is>
       </c>
     </row>
@@ -530,11 +530,11 @@
         <is>
           <t xml:space="preserve">
 COUNTAX(
-    FILTER(
-        LiteracyTable,
-        'LiteracyTable'[Level] = "City"
-    ), 
-    [City]
+  FILTER(
+    LiteracyTable, 
+    'LiteracyTable'[Level] = "City"
+  ), 
+  [City]
 )</t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>This calculation counts the number of cities in the LiteracyTable that have a Level value of "City".</t>
+          <t>This calculation gives the total number of cities in the literacy table where the literacy level is set to "City". This calculation excludes any rows in the literacy table that have a literacy level set to something other than "City".</t>
         </is>
       </c>
     </row>
@@ -563,12 +563,12 @@
       <c r="B4" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">
-COUNTAX(
-    FILTER(
+COUNTAX (
+    FILTER (
         LiteracyTable, 
         LiteracyTable[Level] = "UA"
     ), 
-    [City]
+    LiteracyTable[City]
 )</t>
         </is>
       </c>
@@ -584,7 +584,7 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>This calculation counts the number of unique cities in a literacy table for all records with a Level of "UA". It tells us how many cities have a literacy level of "UA".</t>
+          <t>This calculation counts the number of cities in the LiteracyTable that have a 'Level' value of "UA". It is useful for measuring how many cities are considered to be in the "UA" level of literacy.</t>
         </is>
       </c>
     </row>
@@ -716,13 +716,13 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">1. This changes the data types of the columns in the LiteracyTable_Table to integers, text, or numbers.
-2. This sentence means that the "Replaced Errors" table was created by changing the type and replacing the "State Code" value with 33.
-3. Renamed Columns means that the column labelled "Name of Urban Agglomeration/City" has been changed to "City" for the table "Replaced Errors".
-4. Split a "City" column into two columns named "City.1" and "City.2" based on spaces between words.
-5. Table.TransformColumnTypes takes a data table as an input and transforms the type of certain columns from one type to another.
-6. This line of code removes the "City.2" column from the table "Changed Type1".
-7. The column names "City.1" and "State Name" were changed to "City" and "State", respectively.
+          <t xml:space="preserve">1. The "Changed Type" function changed the data types of the columns in the LiteracyTable_Table to the specified types.
+2. "Replaced Errors" finds the errors in the "Changed Type" table and replaces those errors with the value 33 in the "State Code" column.
+3. This statement renames the column of a table titled "Replaced Errors" to "City".
+4. "Split Column by Delimiter" separates a single column in the table into two columns by splitting it at each space character.
+5. Table.TransformColumnTypes changes the data types of two columns in a table split by delimiter to text.
+6. This means that the "City.2" column has been removed from the table "Changed Type1".
+7. This statement renames the columns "City.1" and "State Name" to "City" and "State" respectively in the "Removed Columns" table.
 </t>
         </is>
       </c>
